--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -232,6 +232,33 @@
   </si>
   <si>
     <t>Взима част от думата от индекс</t>
+  </si>
+  <si>
+    <t>ReGex</t>
+  </si>
+  <si>
+    <t>let matches = text.match(pattern);</t>
+  </si>
+  <si>
+    <t>Връща списък със съвпаденията</t>
+  </si>
+  <si>
+    <t>let matches = text.matchAll(pattern);</t>
+  </si>
+  <si>
+    <t>Връща обект по които може да се итерира. Използва се за изкарване на групите.</t>
+  </si>
+  <si>
+    <t>arr.sort((a,b) =&gt; a.localeCompare(b));</t>
+  </si>
+  <si>
+    <t>Сортиране на елементи от масива по букви в асцендинг ордер</t>
+  </si>
+  <si>
+    <t>return sortedArr.filter(elem =&gt; typeof elem !== "undefined");</t>
+  </si>
+  <si>
+    <t>Връща масива филтриран по даден елемент, в случая ако в него има "undefined"</t>
   </si>
 </sst>
 </file>
@@ -308,16 +335,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B33"/>
+  <dimension ref="A2:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -682,10 +709,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -807,56 +834,95 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="3">
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -259,6 +259,38 @@
   </si>
   <si>
     <t>Връща масива филтриран по даден елемент, в случая ако в него има "undefined"</t>
+  </si>
+  <si>
+    <t>function calculaton(num1, num2, opr){
+    let result = {
+        'multiply': (a, b) =&gt; a * b,
+        'divide': (a, b) =&gt; a / b,
+        'add': (a, b) =&gt; a + b,
+        'subtract': (a, b) =&gt; a - b
+    }
+    console.log(result[opr](num1, num2));
+}</t>
+  </si>
+  <si>
+    <t>Калкоратор чрез речник без if - else проверки с използването на arow function</t>
+  </si>
+  <si>
+    <t>chr1.charCodeAt(0);</t>
+  </si>
+  <si>
+    <t>Връща ASCII стойността на символа.</t>
+  </si>
+  <si>
+    <t>String.fromCharCode(i);</t>
+  </si>
+  <si>
+    <t>Връща символ от ASCII таблицата по зададено число.</t>
+  </si>
+  <si>
+    <t>let numArr = String(num).split("").map((num) =&gt; Number(num))</t>
+  </si>
+  <si>
+    <t>Превръща число в масив от числа . 12345 - [1, 2, 3, 4, 5]</t>
   </si>
 </sst>
 </file>
@@ -323,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,15 +662,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="70.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -842,87 +877,119 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:2" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2BADE9-8B0B-424F-A929-F929FB7D3B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -292,12 +293,54 @@
   <si>
     <t>Превръща число в масив от числа . 12345 - [1, 2, 3, 4, 5]</t>
   </si>
+  <si>
+    <t>console.log(typeof 2 == "number"); - true
+console.log(typeof "2" == "number"); - false
+console.log(typeof "a" == "string") - true
+console.log(/\d/.test("2")); - true
+console.log(!isNaN("2")); - true</t>
+  </si>
+  <si>
+    <t>line += `${num} `.repeat(num) + "\n"</t>
+  </si>
+  <si>
+    <t>Принтиране на един ред повече символа</t>
+  </si>
+  <si>
+    <t>Проверява дали е число, isdigit()- в Python</t>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/\d/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.test("2"));</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +377,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,6 +418,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -378,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,27 +712,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="70.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -697,7 +748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -705,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -713,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -721,13 +772,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -735,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -743,13 +794,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -757,7 +808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -765,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -773,7 +824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -781,7 +832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -789,7 +840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -797,7 +848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -805,7 +856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -813,7 +864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -821,7 +872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -829,7 +880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -837,7 +888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -845,7 +896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
@@ -853,7 +904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -861,7 +912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -869,7 +920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
@@ -877,7 +928,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -885,7 +936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
@@ -893,21 +944,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -915,7 +966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -923,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
@@ -931,7 +982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -939,7 +990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>54</v>
       </c>
@@ -947,7 +998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
@@ -955,7 +1006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>69</v>
       </c>
@@ -963,13 +1014,26 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+    <row r="40" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -977,12 +1041,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2BADE9-8B0B-424F-A929-F929FB7D3B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E467FE-BDE8-4776-9EF6-FBA165C7D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,13 +292,6 @@
   </si>
   <si>
     <t>Превръща число в масив от числа . 12345 - [1, 2, 3, 4, 5]</t>
-  </si>
-  <si>
-    <t>console.log(typeof 2 == "number"); - true
-console.log(typeof "2" == "number"); - false
-console.log(typeof "a" == "string") - true
-console.log(/\d/.test("2")); - true
-console.log(!isNaN("2")); - true</t>
   </si>
   <si>
     <t>line += `${num} `.repeat(num) + "\n"</t>
@@ -334,6 +327,13 @@
       </rPr>
       <t>.test("2"));</t>
     </r>
+  </si>
+  <si>
+    <t>console.log(typeof 2 === "number"); - true
+console.log(typeof "2" === "number"); - false
+console.log(typeof "a" === "string") - true
+console.log(/\d/.test("2")); - true
+console.log(!isNaN("2")); - true</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <dimension ref="A2:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1016,15 +1016,15 @@
     </row>
     <row r="40" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1051,10 +1051,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E467FE-BDE8-4776-9EF6-FBA165C7D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -335,11 +334,17 @@
 console.log(/\d/.test("2")); - true
 console.log(!isNaN("2")); - true</t>
   </si>
+  <si>
+    <t>reversedString = str.split("").reverse().join("");</t>
+  </si>
+  <si>
+    <t>Ревърсва думата</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,27 +717,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="70.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -748,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -756,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -764,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -772,13 +777,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -786,7 +791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -794,13 +799,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -808,7 +813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -816,7 +821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -824,7 +829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -832,7 +837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -840,7 +845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -848,7 +853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -856,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -864,7 +869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -872,7 +877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -880,7 +885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -888,7 +893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -896,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
@@ -904,7 +909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -912,7 +917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -920,7 +925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
@@ -928,7 +933,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -936,7 +941,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
@@ -944,7 +949,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>65</v>
       </c>
@@ -952,13 +957,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
@@ -966,7 +971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -974,7 +979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
@@ -982,7 +987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -990,7 +995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>54</v>
       </c>
@@ -998,7 +1003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
@@ -1006,54 +1011,62 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1061,7 +1074,7 @@
   <mergeCells count="3">
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -270,9 +270,6 @@
     }
     console.log(result[opr](num1, num2));
 }</t>
-  </si>
-  <si>
-    <t>Калкоратор чрез речник без if - else проверки с използването на arow function</t>
   </si>
   <si>
     <t>chr1.charCodeAt(0);</t>
@@ -340,12 +337,184 @@
   <si>
     <t>Ревърсва думата</t>
   </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Object.keys(dict);</t>
+  </si>
+  <si>
+    <t>връща ключовете на речника</t>
+  </si>
+  <si>
+    <t>Object.values(dict);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">връща стойностите </t>
+  </si>
+  <si>
+    <t>Object.entries(dict);</t>
+  </si>
+  <si>
+    <t>връща списък от списъци с ключ и стойност [[key1, value1], [key2, value2]]. Python - dict.items() - връща списък от тюпъли.</t>
+  </si>
+  <si>
+    <t>for(const [index, name] of names.entries())</t>
+  </si>
+  <si>
+    <t>Python - enumerate</t>
+  </si>
+  <si>
+    <t>#word.slice(1); -- wod</t>
+  </si>
+  <si>
+    <t>връща думата без първия символ</t>
+  </si>
+  <si>
+    <t>function cityInfo(data){
+    for (const [key, value] of Object.entries(data)) {
+        console.log(`${key} -&gt; ${value}`);   
+    }
+};</t>
+  </si>
+  <si>
+    <t>Итериране през обект, взимаме ключа и стойноста</t>
+  </si>
+  <si>
+    <r>
+      <t>function cityInfo(data){
+    for (const key of Object.keys(data)) {
+        console.log(`${key} -&gt; ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data[key]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">}`);   
+    }
+}; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.key</t>
+    </r>
+  </si>
+  <si>
+    <t>Два начина за достъпване на стойност. data.key , data[key]</t>
+  </si>
+  <si>
+    <t>let person = {
+       firstName: firstName,
+        lastName: lastName,
+        age: age,
+    };</t>
+  </si>
+  <si>
+    <t>let dict = { name, surName, age}</t>
+  </si>
+  <si>
+    <t>Ако имената на ключовете и стойностите съвпадат може да се напише и така. Това съсдава обект с ключ name и стойност name</t>
+  </si>
+  <si>
+    <t>Калкулатор чрез речник без if - else проверки с използването на arow function</t>
+  </si>
+  <si>
+    <t>let cityInfo = {
+        "name": name,
+        "population": population,
+        "treasury": treasury,
+        "taxRate": 10,
+        collectTaxes(){
+            this.treasury += this.population * this.taxRate
+        },
+        applyGrowth(percentage){
+            percentage /= 100;
+            this.population *= percentage + 1;
+        },
+        applyRecession(percentage){
+            percentage /= 100;
+           this.treasury *= 1 - percentage;
+        }
+    };</t>
+  </si>
+  <si>
+    <t>Методи на обект</t>
+  </si>
+  <si>
+    <t>let person = JSON.parse(jsonStr);</t>
+  </si>
+  <si>
+    <t>Конвертира json string в обект (речник)</t>
+  </si>
+  <si>
+    <t>person.sayHello = () =&gt; console.log("Hello");</t>
+  </si>
+  <si>
+    <t>Добавяне на метод към съществуващ обект.</t>
+  </si>
+  <si>
+    <t>let person = { firstName, lastName, age};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Създава речник Когато ключовете и стойностите са с еднакви имена на променливите. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> const sortedAddressBook = Object.keys(addressBook).sort().reduce(
+        (obj, key) =&gt; { 
+          obj[key] = addressBook[key]; 
+          return obj;
+        }, 
+        {}
+      );</t>
+  </si>
+  <si>
+    <t>Сортиране на обект по ключ по азбучен ред</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>class Cat{
+        constructor(name, age){
+            this.name = name;
+            this.age = age;
+        }</t>
+  </si>
+  <si>
+    <t>Създаване на клас</t>
+  </si>
+  <si>
+    <t>songs.forEach((song) =&gt; console.log(song.name));</t>
+  </si>
+  <si>
+    <t>Принтиране на елементи от масив с обекти чрез  foreach</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +559,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -411,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,6 +613,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B47"/>
+  <dimension ref="A2:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -935,146 +1117,286 @@
     </row>
     <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>88</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>77</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="4" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A32:B32"/>
+  <mergeCells count="5">
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A60:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -602,6 +602,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -613,12 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,10 +982,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1148,10 +1148,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -1165,7 +1165,7 @@
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="A36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1239,30 +1239,30 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1339,10 +1339,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
@@ -1361,10 +1361,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="11"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -508,6 +508,33 @@
   </si>
   <si>
     <t>Принтиране на елементи от масив с обекти чрез  foreach</t>
+  </si>
+  <si>
+    <t>let sortedHeroRegister = heroRegister.sort((a, b) =&gt; {
+        return a.level - b.level;
+    });</t>
+  </si>
+  <si>
+    <t>сортиране на обекти в лист от обекти</t>
+  </si>
+  <si>
+    <t>принтиране на елементи от речника</t>
+  </si>
+  <si>
+    <t>dict.forEach(word =&gt; console.log(`${word} - ${dict[word]}`));</t>
+  </si>
+  <si>
+    <t>collection = words.reduce((acc, cur, i) =&gt; {
+        if (!acc.hasOwnProperty(cur)) {
+            acc[cur] = 1;
+        } else {
+            acc[cur]++;
+        }
+        return acc;
+    }, {});</t>
+  </si>
+  <si>
+    <t>Намиране на броя пъти дадена дума присъства в листа</t>
   </si>
 </sst>
 </file>
@@ -900,15 +927,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B67"/>
+  <dimension ref="A2:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="78.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -1147,256 +1174,280 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
+    <row r="46" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
+    <row r="65" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B66" s="11"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -535,6 +535,13 @@
   </si>
   <si>
     <t>Намиране на броя пъти дадена дума присъства в листа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let obj = JSON.parse(element);
+dict = Object.assign(dict, obj);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Превръщане на JSON стринг в речник </t>
   </si>
 </sst>
 </file>
@@ -929,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1381,6 +1388,14 @@
         <v>103</v>
       </c>
     </row>
+    <row r="60" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>108</v>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC9042-7281-4053-987B-036B39188F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -543,11 +544,20 @@
   <si>
     <t xml:space="preserve">Превръщане на JSON стринг в речник </t>
   </si>
+  <si>
+    <t>Премахване на обект от колекция по име.</t>
+  </si>
+  <si>
+    <t>let indexOfObject = piecesCollection.findIndex(object =&gt; {
+                        return object.piece === pieceName;
+                      });
+piecesCollection.splice(indexOfObject, 1);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -933,27 +943,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="78.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -961,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -969,7 +979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -977,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -985,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -993,13 +1003,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1015,13 +1025,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1029,7 +1039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1053,7 +1063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1101,7 +1111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1133,7 +1143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -1141,7 +1151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
@@ -1149,7 +1159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
@@ -1157,7 +1167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>70</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
@@ -1181,7 +1191,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>117</v>
       </c>
@@ -1189,13 +1199,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1203,7 +1213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1211,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>88</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
@@ -1243,7 +1253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -1259,7 +1269,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -1267,12 +1277,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
@@ -1280,19 +1290,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>104</v>
       </c>
@@ -1300,7 +1310,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>95</v>
       </c>
@@ -1308,7 +1318,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>80</v>
       </c>
@@ -1316,7 +1326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>106</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>92</v>
       </c>
@@ -1332,7 +1342,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>82</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>84</v>
       </c>
@@ -1348,7 +1358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
@@ -1356,7 +1366,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>98</v>
       </c>
@@ -1364,7 +1374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>100</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>102</v>
       </c>
@@ -1388,7 +1398,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>119</v>
       </c>
@@ -1396,13 +1406,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>109</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>111</v>
       </c>
@@ -1418,7 +1436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>113</v>
       </c>
@@ -1426,13 +1444,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>57</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>59</v>
       </c>
@@ -1448,7 +1466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>75</v>
       </c>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC9042-7281-4053-987B-036B39188F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134AF52-12C5-435A-8474-DD9E4F31AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -545,13 +545,21 @@
     <t xml:space="preserve">Превръщане на JSON стринг в речник </t>
   </si>
   <si>
-    <t>Премахване на обект от колекция по име.</t>
-  </si>
-  <si>
     <t>let indexOfObject = piecesCollection.findIndex(object =&gt; {
                         return object.piece === pieceName;
                       });
 piecesCollection.splice(indexOfObject, 1);</t>
+  </si>
+  <si>
+    <t>const newArr = arr.filter(object =&gt; {
+  return object.id !== 3;
+});</t>
+  </si>
+  <si>
+    <t>Премахва обект от лист с обекти по оппределено пропарти на обекта. Като връща нов списък.</t>
+  </si>
+  <si>
+    <t>Премахване на обект от колекция по дадено пропърти като преобразува съществуващият списък.</t>
   </si>
 </sst>
 </file>
@@ -944,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B69"/>
+  <dimension ref="A2:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1406,71 +1414,79 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="B62" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+    <row r="67" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B67" s="11"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1478,9 +1494,9 @@
   <mergeCells count="5">
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t xml:space="preserve">Превръщане на JSON стринг в речник </t>
+  </si>
+  <si>
+    <t>arr.forEach((x, i) =&gt;{ if I %2 === 0</t>
   </si>
 </sst>
 </file>
@@ -934,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B69"/>
+  <dimension ref="A2:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1189,280 +1192,286 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
+    <row r="47" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="10" t="s">
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B67" s="11"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -544,7 +544,14 @@
     <t xml:space="preserve">Превръщане на JSON стринг в речник </t>
   </si>
   <si>
-    <t>arr.forEach((x, i) =&gt;{ if I %2 === 0</t>
+    <t>arr.forEach((elem, idx) =&gt; {
+    if(idx % 2 === 0){
+        return elem;
+    }
+});</t>
+  </si>
+  <si>
+    <t>Обхождане на масив с forEach като всима елемента и индекса</t>
   </si>
 </sst>
 </file>
@@ -940,7 +947,7 @@
   <dimension ref="A2:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1192,11 +1199,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -552,6 +552,39 @@
   </si>
   <si>
     <t>Обхождане на масив с forEach като всима елемента и индекса</t>
+  </si>
+  <si>
+    <t>DOM Manipulation</t>
+  </si>
+  <si>
+    <t>let p = document.createElement("p");</t>
+  </si>
+  <si>
+    <t>Създаваме параграф</t>
+  </si>
+  <si>
+    <t>output.appendChild(p);</t>
+  </si>
+  <si>
+    <t>Вмъкваме в div нов параграф</t>
+  </si>
+  <si>
+    <t>let input = document.getElementById('input');</t>
+  </si>
+  <si>
+    <t>Селектираме текстовото поле и взимаме стойноста от него с .value</t>
+  </si>
+  <si>
+    <t>let textArr = input.value.split('.').filter(s =&gt; s !== '');</t>
+  </si>
+  <si>
+    <t>Създаваме списък с като филтрира празенстринг</t>
+  </si>
+  <si>
+    <t>let text = JSON.parse(document.querySelector('#inputs textarea').value);</t>
+  </si>
+  <si>
+    <t>Взимане на масив като вход в теьстово поле.</t>
   </si>
 </sst>
 </file>
@@ -944,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B70"/>
+  <dimension ref="A2:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1474,8 +1507,55 @@
         <v>74</v>
       </c>
     </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A67:B67"/>
@@ -1483,6 +1563,6 @@
     <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>Взимане на масив като вход в теьстово поле.</t>
+  </si>
+  <si>
+    <t>if(dict.hasOwnProperty(name))</t>
+  </si>
+  <si>
+    <t>Проверява дали в обекта има ключ  name</t>
   </si>
 </sst>
 </file>
@@ -686,16 +692,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1059,10 +1065,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1241,10 +1247,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -1332,10 +1338,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
@@ -1447,11 +1453,19 @@
         <v>120</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
@@ -1478,10 +1492,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -1508,10 +1522,10 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="11"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A5808B-CD9F-4611-AB3A-E61F3F5B15CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -553,11 +554,41 @@
   <si>
     <t>Обхождане на масив с forEach като всима елемента и индекса</t>
   </si>
+  <si>
+    <t>Масив от цели числа</t>
+  </si>
+  <si>
+    <t>let numArr =[...num.toString()];</t>
+  </si>
+  <si>
+    <t>let numArr = num.toString().split('');</t>
+  </si>
+  <si>
+    <t>let numArr = [...num.toString()].map(x =&gt; parseInt(x));</t>
+  </si>
+  <si>
+    <t>Създава масив от числа -стрингове</t>
+  </si>
+  <si>
+    <t>Създава масив от числа - стрингове</t>
+  </si>
+  <si>
+    <t>Създава масив от числа - цели числа</t>
+  </si>
+  <si>
+    <t>let numArr = [...num.toString()].map(Number);</t>
+  </si>
+  <si>
+    <t>(pass.match(/^[A-Za-z0-9]*$/))</t>
+  </si>
+  <si>
+    <t>Проверява дали в стринга има само букви и цифри</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -943,27 +974,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="78.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -971,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -979,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -987,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1003,13 +1034,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1025,13 +1056,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1039,7 +1070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1055,7 +1086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1063,7 +1094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1079,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1087,7 +1118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1095,7 +1126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1119,7 +1150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1127,7 +1158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1135,7 +1166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1143,7 +1174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -1151,7 +1182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
@@ -1159,7 +1190,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
@@ -1167,7 +1198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>70</v>
       </c>
@@ -1175,7 +1206,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
@@ -1183,7 +1214,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
@@ -1191,7 +1222,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>117</v>
       </c>
@@ -1199,7 +1230,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>121</v>
       </c>
@@ -1207,13 +1238,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -1229,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
@@ -1237,7 +1268,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
@@ -1245,7 +1276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
@@ -1253,7 +1284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
@@ -1261,7 +1292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -1269,7 +1300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>77</v>
       </c>
@@ -1277,7 +1308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -1285,202 +1316,250 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+    <row r="52" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="55" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="57" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="58" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+    <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="61" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="62" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
+    <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="11"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A5808B-CD9F-4611-AB3A-E61F3F5B15CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C736B5D-1BD1-40E3-9809-768661DEB633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -583,6 +583,32 @@
   </si>
   <si>
     <t>Проверява дали в стринга има само букви и цифри</t>
+  </si>
+  <si>
+    <t>months.splice(1, 0, 'Feb');</t>
+  </si>
+  <si>
+    <t>Вмъква на индекс 1 като премества всички останали на дясно.</t>
+  </si>
+  <si>
+    <t>arr.splice(index, 0, el);</t>
+  </si>
+  <si>
+    <t>Вмъква елемент на индекс 1 като всички останали елементи на масива се предвижват надясно</t>
+  </si>
+  <si>
+    <t>let index = Number(data[1]);
+let inserElements = data.slice(2);
+arr = arr.slice(0, index).concat(inserElements, arr.slice(index));</t>
+  </si>
+  <si>
+    <t>Вмъква масив в масива на определен индекс.</t>
+  </si>
+  <si>
+    <t>Конвертира всички елементи от масива в числа.</t>
+  </si>
+  <si>
+    <t>arr.map(Number);   ///   arr.map((x) =&gt; Number(x));</t>
   </si>
 </sst>
 </file>
@@ -975,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B76"/>
+  <dimension ref="A2:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1070,496 +1096,528 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="31" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="35" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="36" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="37" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="38" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="39" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="49" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+    <row r="56" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="59" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="63" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="65" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="66" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>57</v>
+    <row r="73" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C736B5D-1BD1-40E3-9809-768661DEB633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="396" windowWidth="21636" windowHeight="16932"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="146">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -53,9 +52,6 @@
   </si>
   <si>
     <t>конвертира число в стринг</t>
-  </si>
-  <si>
-    <t>Number(num)</t>
   </si>
   <si>
     <t>конвертира стринг в число</t>
@@ -124,9 +120,6 @@
   </si>
   <si>
     <t>.splice(0, 2);</t>
-  </si>
-  <si>
-    <t>arr.inclides(3);</t>
   </si>
   <si>
     <t>Проверява дали в маива се съдържа 3</t>
@@ -602,20 +595,64 @@
 arr = arr.slice(0, index).concat(inserElements, arr.slice(index));</t>
   </si>
   <si>
-    <t>Вмъква масив в масива на определен индекс.</t>
-  </si>
-  <si>
     <t>Конвертира всички елементи от масива в числа.</t>
   </si>
   <si>
     <t>arr.map(Number);   ///   arr.map((x) =&gt; Number(x));</t>
+  </si>
+  <si>
+    <t>arr.includes(3);</t>
+  </si>
+  <si>
+    <t>array.splice(index, 1)</t>
+  </si>
+  <si>
+    <t>Махане на елемент от масив на конкретен индекс</t>
+  </si>
+  <si>
+    <t>arr.splice(index, 0, ...insertElements);</t>
+  </si>
+  <si>
+    <t>Вмъква масив в масива на определен индекс. - чрез конкатениране</t>
+  </si>
+  <si>
+    <t>arr.push(arr.shift());</t>
+  </si>
+  <si>
+    <t>Ротира елементите от масив . Взима първия елемент и го поставя най-отзад.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number(num) /// let el = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data[2];</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +698,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1000,27 +1045,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="78.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1052,219 +1097,219 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -1272,354 +1317,378 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="B80" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B72" s="11"/>
-    </row>
-    <row r="73" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A75:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C736B5D-1BD1-40E3-9809-768661DEB633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E3E88-9EB3-477A-8281-E9438F283B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="148">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -610,12 +610,37 @@
   <si>
     <t>arr.map(Number);   ///   arr.map((x) =&gt; Number(x));</t>
   </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>deleteElement.addEventListener('click', (e) =&gt; {
+        e.currentTarget.parentElement.remove();
+    });</t>
+  </si>
+  <si>
+    <t>Изтриване на елемент от ънордеред лист.</t>
+  </si>
+  <si>
+    <t>let emailInputElement = document.querySelector('input[name="email"]');</t>
+  </si>
+  <si>
+    <t>Селектиране на обект от HTML по име</t>
+  </si>
+  <si>
+    <t>div.addEventListener('focus', (e) =&gt; {
+            e.currentTarget.parentElement.classList.add("focused");
+        });</t>
+  </si>
+  <si>
+    <t>Добавяне на клас на перант елемент при фокусиране на child елемент</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +692,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -688,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,6 +743,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -716,9 +756,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1001,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B80"/>
+  <dimension ref="A2:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1083,10 +1120,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1297,10 +1334,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -1428,10 +1465,10 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -1544,10 +1581,10 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -1574,10 +1611,10 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="11"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -1611,8 +1648,39 @@
         <v>132</v>
       </c>
     </row>
+    <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A76:B76"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E3E88-9EB3-477A-8281-E9438F283B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77C9D0-8511-4AF7-9E6B-3A11D6D0D582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="149">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Добавяне на клас на перант елемент при фокусиране на child елемент</t>
+  </si>
+  <si>
+    <t>let email = document.getElementsByName("email")[0].value;</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B86"/>
+  <dimension ref="A2:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1675,6 +1678,14 @@
         <v>144</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>145</v>
       </c>
     </row>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77C9D0-8511-4AF7-9E6B-3A11D6D0D582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06BF60-9A9F-4A3E-A13E-450D97F39488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t>let email = document.getElementsByName("email")[0].value;</t>
+  </si>
+  <si>
+    <t>let isActive = profile.querySelector('input[type="radio"][value="unlock"]').checked;</t>
+  </si>
+  <si>
+    <t>Проверява дали радио бутона е checked. Връща true или false</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B87"/>
+  <dimension ref="A2:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1687,6 +1693,14 @@
       </c>
       <c r="B87" s="4" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -646,6 +646,21 @@
       </rPr>
       <t>data[2];</t>
     </r>
+  </si>
+  <si>
+    <t>if (!piecesMap.hasOwnProperty(piece))</t>
+  </si>
+  <si>
+    <t>Проверява дали обект съдърща конкретен ключ</t>
+  </si>
+  <si>
+    <t>Вмъква масив в масива на определен индекс. - чрез деструктуриране</t>
+  </si>
+  <si>
+    <t>let sortedDict = Object.keys(dict).sort((nameA, nameB) =&gt; nameA.localeCompare(nameB));</t>
+  </si>
+  <si>
+    <t>let sortedDict = Object.entries(dict).sort((a, b) =&gt; a[0].localeCompare(b[0]));</t>
   </si>
 </sst>
 </file>
@@ -713,12 +728,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -733,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,15 +1070,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B83"/>
+  <dimension ref="A2:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="95.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -1186,7 +1210,7 @@
         <v>141</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1337,7 +1361,7 @@
       <c r="A38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1548,135 +1572,159 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>82</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="71" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="75" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="80" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="10" t="s">
+    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B81" s="11"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1684,9 +1732,9 @@
   <mergeCells count="5">
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A81:B81"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A77:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -662,12 +662,21 @@
   <si>
     <t>let sortedDict = Object.entries(dict).sort((a, b) =&gt; a[0].localeCompare(b[0]));</t>
   </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>let textArr = input.value.split('.').filter(s =&gt; s !== '');</t>
+  </si>
+  <si>
+    <t>Създаване на масив от текст като филтрира празните стрингове</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +736,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -754,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,6 +792,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -787,8 +807,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B85"/>
+  <dimension ref="A2:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1152,10 +1172,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1357,148 +1377,148 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B39" s="8" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+    <row r="43" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>127</v>
@@ -1506,75 +1526,75 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+    <row r="60" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+    <row r="63" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>105</v>
@@ -1582,159 +1602,174 @@
     </row>
     <row r="67" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="10" t="s">
+    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="10" t="s">
+    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="11"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B82" s="12"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>130</v>
       </c>
     </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A42:B42"/>
+  <mergeCells count="6">
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A78:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="169">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -670,6 +670,78 @@
   </si>
   <si>
     <t>Създаване на масив от текст като филтрира празните стрингове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  let sortedHeroRegister = heroRegister.sort((a, b) =&gt; {
+        return a.level - b.level;</t>
+  </si>
+  <si>
+    <t>сортиране на обекти в лист от обекти по някаква стойност.</t>
+  </si>
+  <si>
+    <t>products = products.filter(x =&gt; x !== product)</t>
+  </si>
+  <si>
+    <t>Махане на елемент от масив по стойност</t>
+  </si>
+  <si>
+    <t>List manipulation</t>
+  </si>
+  <si>
+    <t>products.unshift(product);</t>
+  </si>
+  <si>
+    <t>Инсъртване най в началото на масива на 0 индекс</t>
+  </si>
+  <si>
+    <t>Премахване на елемент от масив по стойност.</t>
+  </si>
+  <si>
+    <t>1. products = products.filter(x =&gt; x !== product)
+2. let idx = products.indexOf(product);
+    products.splice(idx, 1);</t>
+  </si>
+  <si>
+    <t>Замяна на един елемент от масива с друг</t>
+  </si>
+  <si>
+    <t>let idx = products.indexOf(product);
+products.splice(idx, 1, newItem);</t>
+  </si>
+  <si>
+    <t>Взимане на елемент от листа и поставяне най-отзад в масива</t>
+  </si>
+  <si>
+    <t>let idx = products.indexOf(product);
+products.push(products.splice(idx, 1));</t>
+  </si>
+  <si>
+    <t>Вмъкване на елемент в масив на конкретен индекс като всички останали елементи се придвижад надясно</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">arr.splice(index, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, el);</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -745,7 +817,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -795,6 +873,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -804,10 +888,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1090,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B88"/>
+  <dimension ref="A2:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1172,10 +1260,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1241,535 +1329,617 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>136</v>
-      </c>
+    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" s="14" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>87</v>
+        <v>29</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="12"/>
-    </row>
-    <row r="61" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>149</v>
+        <v>86</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>150</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>98</v>
+      <c r="A74" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>100</v>
+      <c r="A75" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>146</v>
+      <c r="A77" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" s="12"/>
-    </row>
-    <row r="79" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="12"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="7"/>
+    </row>
+    <row r="81" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="10"/>
+    </row>
+    <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="10"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="12"/>
+      <c r="B108" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A43:B43"/>
+  <mergeCells count="7">
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -742,6 +742,12 @@
       </rPr>
       <t>, el);</t>
     </r>
+  </si>
+  <si>
+    <t>Намиране на обект в списък с обекти по име</t>
+  </si>
+  <si>
+    <t>let searchedPiece = piecesCollection.find((x) =&gt; x.name === pieceName);</t>
   </si>
 </sst>
 </file>
@@ -873,6 +879,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -886,16 +902,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1180,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1260,10 +1266,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1330,14 +1336,14 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" s="14" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1347,8 +1353,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1358,8 +1364,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -1369,8 +1375,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -1380,8 +1386,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -1391,8 +1397,19 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -1579,10 +1596,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="12"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
@@ -1710,10 +1727,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -1858,10 +1875,10 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="14"/>
     </row>
     <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
@@ -1888,10 +1905,10 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="10"/>
+      <c r="B102" s="14"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
@@ -1926,10 +1943,10 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="10"/>
+      <c r="B108" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="179">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -748,6 +748,33 @@
   </si>
   <si>
     <t>let searchedPiece = piecesCollection.find((x) =&gt; x.name === pieceName);</t>
+  </si>
+  <si>
+    <t>li.remove();</t>
+  </si>
+  <si>
+    <t>Махане на елемент от DOM дървото</t>
+  </si>
+  <si>
+    <t>let bodyElement = document.createElement("div");
+bodyElement.setAttribute('id', 'main');</t>
+  </si>
+  <si>
+    <t>Създаване на div елемент и добавяне на id</t>
+  </si>
+  <si>
+    <t>element.textContent = element.textContent.replace(matchElement, replacer)</t>
+  </si>
+  <si>
+    <t>while (element.textContent.includes(matchElement)){
+    element.textContent = element.textContent.replace(matchElement, replacer)
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">промяна на всички елементи </t>
+  </si>
+  <si>
+    <t>Смяна на съдържанието на текст. Replace - променя първият срещнат субстринг,  връща нова стойност</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B108"/>
+  <dimension ref="A2:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B121" sqref="B120:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1947,6 +1974,38 @@
         <v>151</v>
       </c>
       <c r="B108" s="14"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="181">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -775,6 +775,13 @@
   </si>
   <si>
     <t>Смяна на съдържанието на текст. Replace - променя първият срещнат субстринг,  връща нова стойност</t>
+  </si>
+  <si>
+    <t>let pattern = new RegExp(matchElement, 'g');
+  element.textContent = element.textContent.replace(pattern, replacer);</t>
+  </si>
+  <si>
+    <t>Замяна на всички съвпадения в даден стринг</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B121" sqref="B120:B121"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1967,6 +1974,14 @@
       </c>
       <c r="B106" s="4" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC9A475-36D8-43BF-8DCB-2B1149E0ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="396" windowWidth="21636" windowHeight="16932"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,7 +788,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1217,27 +1218,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1277,13 +1278,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1299,13 +1300,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1369,17 +1370,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1387,10 +1388,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1398,10 +1399,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1409,10 +1410,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1420,10 +1421,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1431,10 +1432,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1442,10 +1443,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1629,13 +1630,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B62" s="16"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
@@ -1707,12 +1708,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
@@ -1760,19 +1761,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>102</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>93</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>104</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>149</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>154</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>114</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>117</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -1908,13 +1909,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B98" s="14"/>
     </row>
-    <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>111</v>
       </c>
@@ -1938,13 +1939,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B102" s="14"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>73</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>129</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>179</v>
       </c>
@@ -1984,13 +1985,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B108" s="14"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>173</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>175</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>176</v>
       </c>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC9A475-36D8-43BF-8DCB-2B1149E0ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="183">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -784,11 +783,17 @@
   <si>
     <t>Замяна на всички съвпадения в даден стринг</t>
   </si>
+  <si>
+    <t>doqument.querySelector('input[name="email"]');</t>
+  </si>
+  <si>
+    <t>селектира елемента с име имейл.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1218,27 +1223,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="95.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1278,13 +1283,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1300,13 +1305,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1370,17 +1375,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1388,10 +1393,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1399,10 +1404,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1410,10 +1415,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1421,10 +1426,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1432,10 +1437,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1443,10 +1448,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1462,7 +1467,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1518,7 +1523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1526,7 +1531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1558,7 +1563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1566,7 +1571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1574,7 +1579,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1614,7 +1619,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1630,13 +1635,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B62" s="16"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -1676,7 +1681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -1684,7 +1689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1700,7 +1705,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
@@ -1708,12 +1713,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -1737,7 +1742,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
@@ -1745,7 +1750,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
@@ -1761,19 +1766,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>102</v>
       </c>
@@ -1781,7 +1786,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>93</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>104</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>149</v>
       </c>
@@ -1821,7 +1826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -1829,7 +1834,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>154</v>
       </c>
@@ -1837,7 +1842,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -1845,7 +1850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -1861,7 +1866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -1869,7 +1874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>114</v>
       </c>
@@ -1877,7 +1882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -1885,7 +1890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
@@ -1893,7 +1898,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>117</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -1909,13 +1914,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B98" s="14"/>
     </row>
-    <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -1923,7 +1928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -1931,7 +1936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>111</v>
       </c>
@@ -1939,13 +1944,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B102" s="14"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -1953,7 +1958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -1961,7 +1966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>73</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>129</v>
       </c>
@@ -1977,7 +1982,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>179</v>
       </c>
@@ -1985,13 +1990,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B108" s="14"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
@@ -1999,7 +2004,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>173</v>
       </c>
@@ -2007,7 +2012,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>175</v>
       </c>
@@ -2015,12 +2020,20 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E13614-12FB-44BA-9F58-72E299578BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="186">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -789,11 +790,20 @@
   <si>
     <t>селектира елемента с име имейл.</t>
   </si>
+  <si>
+    <t>h1.textContent = document.querySelector(`#posts option[value=${postId}`).textContent;</t>
+  </si>
+  <si>
+    <t>Взимане на сойност чрез иинтерполация с променлива</t>
+  </si>
+  <si>
+    <t>h1.textContent =  optionElement.selectedOptions[0].textContent;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -929,6 +939,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,9 +949,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1223,27 +1233,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1283,13 +1293,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1305,13 +1315,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1319,7 +1329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1327,7 +1337,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1335,7 +1345,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1343,7 +1353,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1351,7 +1361,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1359,7 +1369,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1375,17 +1385,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1393,10 +1403,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1404,10 +1414,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1415,10 +1425,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1426,10 +1436,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1437,10 +1447,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1448,10 +1458,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1459,7 +1469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1467,7 +1477,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1475,7 +1485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1483,7 +1493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1531,7 +1541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1555,7 +1565,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1579,7 +1589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1603,7 +1613,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1635,13 +1645,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="16"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1649,7 +1659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
@@ -1657,7 +1667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1673,7 +1683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -1681,7 +1691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
@@ -1713,12 +1723,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -1726,7 +1736,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -1734,7 +1744,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
@@ -1750,7 +1760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
@@ -1758,7 +1768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
@@ -1766,19 +1776,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="14"/>
-    </row>
-    <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="15"/>
+    </row>
+    <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>102</v>
       </c>
@@ -1786,7 +1796,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>93</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
@@ -1810,7 +1820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>104</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>149</v>
       </c>
@@ -1826,7 +1836,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -1834,7 +1844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>154</v>
       </c>
@@ -1842,7 +1852,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -1850,7 +1860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -1858,7 +1868,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -1866,7 +1876,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -1874,7 +1884,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>114</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -1890,7 +1900,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>117</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -1914,13 +1924,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="14"/>
-    </row>
-    <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="B98" s="15"/>
+    </row>
+    <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -1928,7 +1938,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>111</v>
       </c>
@@ -1944,13 +1954,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="14"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="15"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -1958,7 +1968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>73</v>
       </c>
@@ -1974,7 +1984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>129</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>179</v>
       </c>
@@ -1990,13 +2000,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="14"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="15"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>173</v>
       </c>
@@ -2012,7 +2022,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>175</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>176</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>181</v>
       </c>
@@ -2036,8 +2046,23 @@
         <v>182</v>
       </c>
     </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B114:B115"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E13614-12FB-44BA-9F58-72E299578BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5514D-6B63-4DD0-BF08-27A1F56F0974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="188">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -798,6 +798,23 @@
   </si>
   <si>
     <t>h1.textContent =  optionElement.selectedOptions[0].textContent;</t>
+  </si>
+  <si>
+    <t>POST Заявка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  let body = {
+            author: authorElement.value,
+            content: contentElement.value,
+        };
+  const response = await fetch(url, {
+            method: 'POST',
+            headers: {
+                'Content-type': 'application/json'
+            },
+            body: JSON.stringify(body)
+        });
+        const data = await response.json();</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B115"/>
+  <dimension ref="A2:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2059,6 +2076,14 @@
         <v>185</v>
       </c>
       <c r="B115" s="13"/>
+    </row>
+    <row r="116" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5514D-6B63-4DD0-BF08-27A1F56F0974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C900A6-4830-4415-AC51-A682AF8AE8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="195">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -815,6 +815,31 @@
             body: JSON.stringify(body)
         });
         const data = await response.json();</t>
+  </si>
+  <si>
+    <t>const content = Object.values(data).map(entry =&gt; `${entry.author}: ${entry.content}`).join('\n');</t>
+  </si>
+  <si>
+    <t>Обхождане на обект с обекти и създаване на масив със съдържанието на обектите</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> const content = [];
+ for (const elem of Object.values(data)) {
+            content.push(`${elem.author}: ${elem.content}`)
+        }</t>
+  </si>
+  <si>
+    <t>let li = e.currentTarget.parentElement;
+let id = li.getAttribute('data-id');</t>
+  </si>
+  <si>
+    <t>Изтриване на елемент от сървъра .</t>
+  </si>
+  <si>
+    <t>let id = li.getAttribute('data-id');</t>
+  </si>
+  <si>
+    <t>Взимане на атрибут на елемент</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B116"/>
+  <dimension ref="A2:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2085,8 +2110,39 @@
         <v>186</v>
       </c>
     </row>
+    <row r="117" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" s="13"/>
+    </row>
+    <row r="119" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B117:B118"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A62:B62"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C900A6-4830-4415-AC51-A682AF8AE8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D79CEA-AC12-400C-AE00-DD03E52599F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,10 +829,6 @@
         }</t>
   </si>
   <si>
-    <t>let li = e.currentTarget.parentElement;
-let id = li.getAttribute('data-id');</t>
-  </si>
-  <si>
     <t>Изтриване на елемент от сървъра .</t>
   </si>
   <si>
@@ -840,6 +836,16 @@
   </si>
   <si>
     <t>Взимане на атрибут на елемент</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> const url = `http://localhost:3030/jsonstore/phonebook/${id}`;
+  const response = await fetch(url, {
+            method: 'DELETE',
+            headers: {
+                'Content-type': 'application/json'
+            },
+            body: JSON.stringify(null)
+        });</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1285,7 @@
   <dimension ref="A2:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2124,20 +2130,20 @@
       </c>
       <c r="B118" s="13"/>
     </row>
-    <row r="119" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D79CEA-AC12-400C-AE00-DD03E52599F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557F333A-DAA0-4426-A9AC-8B4AC8869C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="196">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -846,6 +846,9 @@
             },
             body: JSON.stringify(null)
         });</t>
+  </si>
+  <si>
+    <t>let id = li.id ,      let name = li.name</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,6 +943,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -953,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1002,6 +1011,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B120"/>
+  <dimension ref="A2:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2139,15 +2149,22 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="13" t="s">
         <v>193</v>
       </c>
     </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B120:B121"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="A108:B108"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557F333A-DAA0-4426-A9AC-8B4AC8869C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="468" windowWidth="21636" windowHeight="16932"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -854,7 +853,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,6 +995,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1011,7 +1011,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,27 +1290,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="95.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1351,13 +1350,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1373,13 +1372,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1443,17 +1442,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1461,10 +1460,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1472,10 +1471,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1483,10 +1482,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1494,10 +1493,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1505,10 +1504,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1516,10 +1515,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1703,13 +1702,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
@@ -1781,12 +1780,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
@@ -1834,19 +1833,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
+    <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
-    </row>
-    <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+    </row>
+    <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>102</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>93</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>104</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>149</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>154</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -1942,7 +1941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>114</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>117</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -1982,13 +1981,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="15"/>
-    </row>
-    <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="16"/>
+    </row>
+    <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>111</v>
       </c>
@@ -2012,13 +2011,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="15"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="16"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>73</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>129</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>179</v>
       </c>
@@ -2058,13 +2057,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="15"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="16"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>173</v>
       </c>
@@ -2080,7 +2079,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>175</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>176</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>181</v>
       </c>
@@ -2104,21 +2103,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="B115" s="14"/>
+    </row>
+    <row r="116" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>187</v>
       </c>
@@ -2126,21 +2125,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B118" s="13"/>
-    </row>
-    <row r="119" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="B118" s="14"/>
+    </row>
+    <row r="119" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>194</v>
       </c>
@@ -2148,32 +2147,32 @@
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B121" s="13"/>
+      <c r="B121" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="B120:B121"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="200">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -848,6 +848,18 @@
   </si>
   <si>
     <t>let id = li.id ,      let name = li.name</t>
+  </si>
+  <si>
+    <t>result.classList.add('class1', 'class2');</t>
+  </si>
+  <si>
+    <t>Добавяне на няколко класа на даден елемент</t>
+  </si>
+  <si>
+    <t>result.classList.remove('class1')</t>
+  </si>
+  <si>
+    <t>Премахваме клас от даден елемент</t>
   </si>
 </sst>
 </file>
@@ -996,20 +1008,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B121"/>
+  <dimension ref="A2:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1373,10 +1385,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1443,10 +1455,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
@@ -1703,10 +1715,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
@@ -1834,10 +1846,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="16"/>
+      <c r="B79" s="15"/>
     </row>
     <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -1982,10 +1994,10 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="16"/>
+      <c r="B98" s="15"/>
     </row>
     <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
@@ -2012,10 +2024,10 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="16"/>
+      <c r="B102" s="15"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
@@ -2058,10 +2070,10 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="16"/>
+      <c r="B108" s="15"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
@@ -2107,7 +2119,7 @@
       <c r="A114" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="17" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2115,7 +2127,7 @@
       <c r="A115" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B115" s="14"/>
+      <c r="B115" s="17"/>
     </row>
     <row r="116" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
@@ -2129,7 +2141,7 @@
       <c r="A117" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="17" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2137,7 +2149,7 @@
       <c r="A118" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B118" s="14"/>
+      <c r="B118" s="17"/>
     </row>
     <row r="119" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
@@ -2151,7 +2163,7 @@
       <c r="A120" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="17" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2159,20 +2171,36 @@
       <c r="A121" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B121" s="14"/>
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="204">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -860,6 +860,18 @@
   </si>
   <si>
     <t>Премахваме клас от даден елемент</t>
+  </si>
+  <si>
+    <t>let isActive = profile.querySelector('input[type="radio"][value="unlock"]')</t>
+  </si>
+  <si>
+    <t>Селектиране по 2 параметъра, type и value</t>
+  </si>
+  <si>
+    <t>e.currentTarget.disabled = true;</t>
+  </si>
+  <si>
+    <t>Десактивира бутона</t>
   </si>
 </sst>
 </file>
@@ -1008,20 +1020,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B123"/>
+  <dimension ref="A2:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1385,10 +1397,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1455,10 +1467,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
@@ -1715,10 +1727,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="17"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
@@ -1846,10 +1858,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
+      <c r="B79" s="16"/>
     </row>
     <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -1994,10 +2006,10 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
     </row>
     <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
@@ -2024,10 +2036,10 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
@@ -2070,10 +2082,10 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
@@ -2117,90 +2129,114 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>184</v>
+        <v>200</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B115" s="17"/>
-    </row>
-    <row r="116" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="B116" s="14"/>
+    </row>
+    <row r="117" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B118" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+    <row r="119" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B118" s="17"/>
-    </row>
-    <row r="119" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="B119" s="14"/>
+    </row>
+    <row r="120" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B121" s="14" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B121" s="17"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>197</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B122" s="14"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5922A74-CF22-46FD-A374-A0FBA737154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2736" yWindow="468" windowWidth="21636" windowHeight="16932"/>
+    <workbookView xWindow="2730" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="205">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -873,11 +874,31 @@
   <si>
     <t>Десактивира бутона</t>
   </si>
+  <si>
+    <t>function createElement(type, content, parent, className, src){
+        let newElement = document.createElement(type);
+        if (content &amp;&amp; type === 'input'){
+            newElement.value = content;
+        } else if (content) {
+            newElement.textContent = content;
+        }
+        if (parent){
+            parent.appendChild(newElement);
+        }
+        if (src){
+            newElement.src = src;
+        }
+        if (className){
+            newElement.className = className;
+        }
+        return newElement;
+    }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1020,20 +1041,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,27 +1335,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1342,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1374,13 +1395,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1388,7 +1409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1396,13 +1417,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1418,7 +1439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1426,7 +1447,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1434,7 +1455,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1442,7 +1463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1450,7 +1471,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1458,7 +1479,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1466,17 +1487,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1484,10 +1505,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1495,10 +1516,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1506,10 +1527,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1517,10 +1538,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1528,10 +1549,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1539,10 +1560,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1550,7 +1571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1558,7 +1579,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1574,7 +1595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1590,7 +1611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +1619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1606,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1659,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1646,7 +1667,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1662,7 +1683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1670,7 +1691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1678,7 +1699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1718,7 +1739,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1726,13 +1747,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="17"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1740,7 +1761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
@@ -1748,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
@@ -1756,7 +1777,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1764,7 +1785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -1780,7 +1801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
@@ -1788,7 +1809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1796,7 +1817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
@@ -1804,12 +1825,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -1817,7 +1838,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -1825,7 +1846,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -1833,7 +1854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
@@ -1841,7 +1862,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
@@ -1849,7 +1870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
@@ -1857,19 +1878,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="16"/>
-    </row>
-    <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="15"/>
+    </row>
+    <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>102</v>
       </c>
@@ -1877,7 +1898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>93</v>
       </c>
@@ -1885,7 +1906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
@@ -1893,7 +1914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
@@ -1901,7 +1922,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>104</v>
       </c>
@@ -1909,7 +1930,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>149</v>
       </c>
@@ -1917,7 +1938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -1925,7 +1946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>154</v>
       </c>
@@ -1933,7 +1954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -1941,7 +1962,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -1949,7 +1970,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -1957,7 +1978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -1965,7 +1986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>114</v>
       </c>
@@ -1973,7 +1994,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -1981,7 +2002,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
@@ -1989,7 +2010,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>117</v>
       </c>
@@ -1997,7 +2018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -2005,13 +2026,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="18" t="s">
+    <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="16"/>
-    </row>
-    <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="B98" s="15"/>
+    </row>
+    <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -2019,7 +2040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -2027,7 +2048,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>111</v>
       </c>
@@ -2035,13 +2056,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="18" t="s">
+    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="16"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="15"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -2049,7 +2070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -2057,7 +2078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>73</v>
       </c>
@@ -2065,7 +2086,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>129</v>
       </c>
@@ -2073,7 +2094,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>179</v>
       </c>
@@ -2081,13 +2102,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="16"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="15"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
@@ -2095,7 +2116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>173</v>
       </c>
@@ -2103,7 +2124,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>175</v>
       </c>
@@ -2111,7 +2132,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>176</v>
       </c>
@@ -2119,7 +2140,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>181</v>
       </c>
@@ -2127,7 +2148,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>200</v>
       </c>
@@ -2135,21 +2156,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="14"/>
-    </row>
-    <row r="117" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>187</v>
       </c>
@@ -2157,21 +2178,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="14"/>
-    </row>
-    <row r="120" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="B119" s="17"/>
+    </row>
+    <row r="120" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>194</v>
       </c>
@@ -2179,21 +2200,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="14"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="17"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>196</v>
       </c>
@@ -2201,7 +2222,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>198</v>
       </c>
@@ -2209,7 +2230,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>200</v>
       </c>
@@ -2217,7 +2238,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>202</v>
       </c>
@@ -2225,18 +2246,23 @@
         <v>203</v>
       </c>
     </row>
+    <row r="127" spans="1:2" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5922A74-CF22-46FD-A374-A0FBA737154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E2C8E6-4A04-45D1-B300-EAF3D3200F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="207">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -893,6 +893,12 @@
         }
         return newElement;
     }</t>
+  </si>
+  <si>
+    <t>productName.value = tr.children[0].textContent;</t>
+  </si>
+  <si>
+    <t>достъпване до child емент</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B127"/>
+  <dimension ref="A2:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2249,6 +2255,14 @@
     <row r="127" spans="1:2" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E2C8E6-4A04-45D1-B300-EAF3D3200F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4EE70-0103-41F5-A21D-985FEF8DBB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="215">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -875,7 +875,19 @@
     <t>Десактивира бутона</t>
   </si>
   <si>
-    <t>function createElement(type, content, parent, className, src){
+    <t>productName.value = tr.children[0].textContent;</t>
+  </si>
+  <si>
+    <t>достъпване до child емент</t>
+  </si>
+  <si>
+    <t>window.addEventListener('load', solve);</t>
+  </si>
+  <si>
+    <t>Зреждане на функцията при отваряне на страницата</t>
+  </si>
+  <si>
+    <t>function createElement(type, content, parent, id, className, src){
         let newElement = document.createElement(type);
         if (content &amp;&amp; type === 'input'){
             newElement.value = content;
@@ -891,14 +903,56 @@
         if (className){
             newElement.className = className;
         }
+        if (id){
+            newElement.id = id;
+        }
         return newElement;
     }</t>
   </si>
   <si>
-    <t>productName.value = tr.children[0].textContent;</t>
-  </si>
-  <si>
-    <t>достъпване до child емент</t>
+    <t>async function deleteItem(e){
+        let parent = e.target.parentElement.parentElement;
+        let id = parent.id;
+        console.log(id);
+        const url = `http://localhost:3030/jsonstore/grocery/${id}`;
+        const response = await fetch(url, {
+                  method: 'DELETE'});
+        loadData();
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE </t>
+  </si>
+  <si>
+    <t>async function loadData(){
+        tbody.innerHTML = '';
+        const url = 'http://localhost:3030/jsonstore/grocery/';
+        const response = await fetch(url);
+        const data = await response.json();
+        renderData(data);
+    }</t>
+  </si>
+  <si>
+    <t>LOAD DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   function getInputData(){
+        let product = productElement.value;
+        let count = countElement.value;
+        let price = priceElement.value;
+        let body = {
+            product,
+            count,
+            price,
+        }
+        productElement.value = '';
+        countElement.value = '';
+        priceElement.value = '';
+        return body;
+    }</t>
+  </si>
+  <si>
+    <t>GET DATA FROM INPUT FIELDS</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1028,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,8 +1053,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1008,11 +1074,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,6 +1128,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1342,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B128"/>
+  <dimension ref="A2:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1424,10 +1513,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1494,10 +1583,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1754,10 +1843,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="17"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -1885,10 +1974,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -2033,10 +2122,10 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="15"/>
+      <c r="B98" s="19"/>
     </row>
     <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -2063,10 +2152,10 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="15"/>
+      <c r="B102" s="19"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -2109,10 +2198,10 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="15"/>
+      <c r="B108" s="19"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -2166,7 +2255,7 @@
       <c r="A115" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="21" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2174,7 +2263,7 @@
       <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="17"/>
+      <c r="B116" s="21"/>
     </row>
     <row r="117" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -2188,7 +2277,7 @@
       <c r="A118" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2196,7 +2285,7 @@
       <c r="A119" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="17"/>
+      <c r="B119" s="21"/>
     </row>
     <row r="120" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
@@ -2210,7 +2299,7 @@
       <c r="A121" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="21" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2218,7 +2307,7 @@
       <c r="A122" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="17"/>
+      <c r="B122" s="21"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -2252,18 +2341,62 @@
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B128" s="4" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>206</v>
       </c>
+      <c r="B129" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="15"/>
+    </row>
+    <row r="131" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="15"/>
+    </row>
+    <row r="133" spans="1:2" s="16" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="15"/>
+    </row>
+    <row r="135" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4EE70-0103-41F5-A21D-985FEF8DBB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C33AD72-3357-431B-857E-396EAC1014EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,20 +1136,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1513,10 +1513,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1583,10 +1583,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1843,10 +1843,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="18"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -1974,10 +1974,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -2122,10 +2122,10 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="19"/>
+      <c r="B98" s="20"/>
     </row>
     <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -2152,10 +2152,10 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="19"/>
+      <c r="B102" s="20"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -2198,10 +2198,10 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -2255,7 +2255,7 @@
       <c r="A115" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="18" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="21"/>
+      <c r="B116" s="18"/>
     </row>
     <row r="117" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -2277,7 +2277,7 @@
       <c r="A118" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       <c r="A119" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="21"/>
+      <c r="B119" s="18"/>
     </row>
     <row r="120" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
@@ -2299,7 +2299,7 @@
       <c r="A121" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       <c r="A122" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="21"/>
+      <c r="B122" s="18"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -2400,16 +2400,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C33AD72-3357-431B-857E-396EAC1014EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62807087-7C3E-491E-84AB-5D3E5B4A8AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="219">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -953,6 +953,25 @@
   </si>
   <si>
     <t>GET DATA FROM INPUT FIELDS</t>
+  </si>
+  <si>
+    <t>cooffees.splice(cooffees.length - count, count);</t>
+  </si>
+  <si>
+    <t>Махане на последните n елемента от масив</t>
+  </si>
+  <si>
+    <t>Размяна на два елемента от списък по индекси</t>
+  </si>
+  <si>
+    <t>let idx1 = Number(data.split(' ')[1]);
+let idx2 = Number(data.split(' ')[2]);
+            if ((0 &lt;= idx1 &amp;&amp; idx1 &lt;= coffees.length) &amp;&amp; (0 &lt;= idx2 &amp;&amp; idx2 &lt;= coffees.length)) {
+                let coffee1 = coffees[idx1];
+                let coffee2 = coffees[idx2];
+                coffees.splice(idx1, 1, coffee2);
+                coffees.splice(idx2, 1, coffee1);
+            }</t>
   </si>
 </sst>
 </file>
@@ -1136,20 +1155,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1513,10 +1532,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1583,10 +1602,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1658,6 +1677,22 @@
     <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>138</v>
@@ -1843,10 +1878,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -1974,10 +2009,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -2122,10 +2157,10 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="19"/>
     </row>
     <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -2152,10 +2187,10 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="20"/>
+      <c r="B102" s="19"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -2198,10 +2233,10 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="19"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -2255,7 +2290,7 @@
       <c r="A115" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="21" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2263,7 +2298,7 @@
       <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="18"/>
+      <c r="B116" s="21"/>
     </row>
     <row r="117" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -2277,7 +2312,7 @@
       <c r="A118" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2285,7 +2320,7 @@
       <c r="A119" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="18"/>
+      <c r="B119" s="21"/>
     </row>
     <row r="120" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
@@ -2299,7 +2334,7 @@
       <c r="A121" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="21" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2307,7 +2342,7 @@
       <c r="A122" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="18"/>
+      <c r="B122" s="21"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -2400,16 +2435,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62807087-7C3E-491E-84AB-5D3E5B4A8AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E1682-8D7A-48D1-80E7-A3A38286327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="220">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -972,6 +972,9 @@
                 coffees.splice(idx1, 1, coffee2);
                 coffees.splice(idx2, 1, coffee1);
             }</t>
+  </si>
+  <si>
+    <t>CREATE ELEMENT</t>
   </si>
 </sst>
 </file>
@@ -1155,20 +1158,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1532,10 +1535,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1602,10 +1605,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1878,10 +1881,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="18"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -2009,10 +2012,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -2157,10 +2160,10 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="19"/>
+      <c r="B98" s="20"/>
     </row>
     <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -2187,10 +2190,10 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="19"/>
+      <c r="B102" s="20"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -2233,10 +2236,10 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -2290,7 +2293,7 @@
       <c r="A115" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="18" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2298,7 +2301,7 @@
       <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="21"/>
+      <c r="B116" s="18"/>
     </row>
     <row r="117" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -2312,7 +2315,7 @@
       <c r="A118" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2320,7 +2323,7 @@
       <c r="A119" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="21"/>
+      <c r="B119" s="18"/>
     </row>
     <row r="120" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
@@ -2334,7 +2337,7 @@
       <c r="A121" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2342,7 +2345,7 @@
       <c r="A122" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="21"/>
+      <c r="B122" s="18"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -2380,6 +2383,9 @@
       <c r="A127" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="B127" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
@@ -2435,16 +2441,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C33AD72-3357-431B-857E-396EAC1014EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -958,7 +957,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1136,20 +1135,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1430,27 +1429,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="95.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1490,13 +1489,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1512,13 +1511,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1526,7 +1525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1582,17 +1581,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1600,10 +1599,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1611,10 +1610,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1622,10 +1621,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1633,10 +1632,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1644,10 +1643,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1655,10 +1654,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1842,13 +1841,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
@@ -1920,12 +1919,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
@@ -1973,19 +1972,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+    <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="20"/>
-    </row>
-    <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="19"/>
+    </row>
+    <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>102</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>93</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>104</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>149</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>154</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>114</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>117</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -2121,13 +2120,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="20"/>
-    </row>
-    <row r="99" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="19"/>
+    </row>
+    <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>111</v>
       </c>
@@ -2151,13 +2150,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="22" t="s">
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="20"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="19"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>73</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>129</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>179</v>
       </c>
@@ -2197,13 +2196,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="20"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="19"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>173</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>175</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>176</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>181</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>200</v>
       </c>
@@ -2251,21 +2250,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="18"/>
-    </row>
-    <row r="117" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="B116" s="21"/>
+    </row>
+    <row r="117" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>187</v>
       </c>
@@ -2273,21 +2272,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="18"/>
-    </row>
-    <row r="120" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="B119" s="21"/>
+    </row>
+    <row r="120" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>194</v>
       </c>
@@ -2295,21 +2294,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="18"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="21"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>196</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>198</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>200</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>202</v>
       </c>
@@ -2341,12 +2340,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="346.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>204</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>206</v>
       </c>
@@ -2362,10 +2361,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="15"/>
     </row>
-    <row r="131" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>211</v>
       </c>
@@ -2373,10 +2372,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="15"/>
     </row>
-    <row r="133" spans="1:2" s="16" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" s="16" customFormat="1" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
         <v>213</v>
       </c>
@@ -2384,10 +2383,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="15"/>
     </row>
-    <row r="135" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>209</v>
       </c>
@@ -2395,21 +2394,21 @@
         <v>210</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4737B4C-F4C4-4B37-972D-8EB8D38FFFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="1950" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="217">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -953,11 +954,17 @@
   <si>
     <t>GET DATA FROM INPUT FIELDS</t>
   </si>
+  <si>
+    <t>delete pieces[piece];</t>
+  </si>
+  <si>
+    <t>Изтриване на обект от обекти</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1135,20 +1142,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,27 +1436,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1489,13 +1496,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1503,7 +1510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1511,13 +1518,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1541,7 +1548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1557,7 +1564,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1581,17 +1588,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1599,10 +1606,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1610,10 +1617,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1621,10 +1628,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1632,10 +1639,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1643,10 +1650,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1654,10 +1661,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1665,7 +1672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1673,7 +1680,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1697,7 +1704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1721,7 +1728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1737,7 +1744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1761,7 +1768,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1769,7 +1776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1785,7 +1792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1793,7 +1800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1809,7 +1816,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1817,7 +1824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1825,7 +1832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1833,7 +1840,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1841,13 +1848,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="22" t="s">
+    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
@@ -1871,7 +1878,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -1887,7 +1894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -1895,7 +1902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
@@ -1903,7 +1910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1911,7 +1918,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
@@ -1919,12 +1926,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -1948,7 +1955,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
@@ -1956,7 +1963,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
@@ -1972,19 +1979,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="19"/>
-    </row>
-    <row r="80" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>102</v>
       </c>
@@ -1992,7 +1999,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>93</v>
       </c>
@@ -2000,7 +2007,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
@@ -2008,7 +2015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
@@ -2016,7 +2023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>104</v>
       </c>
@@ -2024,7 +2031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>149</v>
       </c>
@@ -2032,7 +2039,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -2040,7 +2047,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>154</v>
       </c>
@@ -2048,7 +2055,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -2056,7 +2063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
@@ -2080,7 +2087,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>114</v>
       </c>
@@ -2088,7 +2095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -2096,7 +2103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>100</v>
       </c>
@@ -2104,7 +2111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>117</v>
       </c>
@@ -2112,303 +2119,311 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="18" t="s">
+    <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="19"/>
-    </row>
-    <row r="99" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="B99" s="20"/>
+    </row>
+    <row r="100" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+    <row r="102" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="18" t="s">
+    <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="19"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="B103" s="20"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+    <row r="108" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="20" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="19"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="B109" s="20"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+    <row r="112" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+    <row r="113" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="21" t="s">
+      <c r="B116" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="21"/>
-    </row>
-    <row r="117" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+      <c r="B117" s="18"/>
+    </row>
+    <row r="118" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
+    <row r="119" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B119" s="18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+    <row r="120" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="21"/>
-    </row>
-    <row r="120" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="B120" s="18"/>
+    </row>
+    <row r="121" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="13" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B122" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="21"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
+      <c r="B123" s="18"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="343.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
+    <row r="128" spans="1:2" ht="346.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="15"/>
-    </row>
-    <row r="131" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="15"/>
+    </row>
+    <row r="132" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="15"/>
-    </row>
-    <row r="133" spans="1:2" s="16" customFormat="1" ht="249.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="17" t="s">
+    <row r="133" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="15"/>
+    </row>
+    <row r="134" spans="1:2" s="16" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B134" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="15"/>
-    </row>
-    <row r="135" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+    <row r="135" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="15"/>
+    </row>
+    <row r="136" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B136" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="15"/>
+    <row r="137" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A109:B109"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4737B4C-F4C4-4B37-972D-8EB8D38FFFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6EFD9C-FDF2-4D0C-A9DD-7A6559EA5443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,20 +1142,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1519,10 +1519,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1589,10 +1589,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1849,10 +1849,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -1980,10 +1980,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -2136,10 +2136,10 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="19"/>
     </row>
     <row r="100" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -2166,10 +2166,10 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="19"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -2212,10 +2212,10 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="20"/>
+      <c r="B109" s="19"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -2269,7 +2269,7 @@
       <c r="A116" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="21" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       <c r="A117" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B117" s="18"/>
+      <c r="B117" s="21"/>
     </row>
     <row r="118" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -2291,7 +2291,7 @@
       <c r="A119" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       <c r="A120" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="18"/>
+      <c r="B120" s="21"/>
     </row>
     <row r="121" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -2313,7 +2313,7 @@
       <c r="A122" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="21" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="A123" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B123" s="18"/>
+      <c r="B123" s="21"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -2414,16 +2414,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6EFD9C-FDF2-4D0C-A9DD-7A6559EA5443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305F25D1-5E10-4C16-A844-F791729E80A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,20 +1142,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1519,10 +1519,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1589,10 +1589,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1849,10 +1849,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="18"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -1980,10 +1980,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -2136,10 +2136,10 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="19"/>
+      <c r="B99" s="20"/>
     </row>
     <row r="100" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -2166,10 +2166,10 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="19"/>
+      <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -2212,10 +2212,10 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="19"/>
+      <c r="B109" s="20"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -2269,7 +2269,7 @@
       <c r="A116" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="18" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       <c r="A117" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B117" s="21"/>
+      <c r="B117" s="18"/>
     </row>
     <row r="118" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -2291,7 +2291,7 @@
       <c r="A119" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       <c r="A120" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="21"/>
+      <c r="B120" s="18"/>
     </row>
     <row r="121" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -2313,7 +2313,7 @@
       <c r="A122" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="A123" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B123" s="21"/>
+      <c r="B123" s="18"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -2414,16 +2414,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="B122:B123"/>
     <mergeCell ref="B119:B120"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305F25D1-5E10-4C16-A844-F791729E80A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9596E8-1D1B-4F45-8D8C-75B377F1CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="219">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -959,6 +959,17 @@
   </si>
   <si>
     <t>Изтриване на обект от обекти</t>
+  </si>
+  <si>
+    <t>Размяна на два елемента от масив по дадени индекси</t>
+  </si>
+  <si>
+    <t>let idx1 = Number(line.shift());
+let idx2 = Number(line.shift());
+let index2Element = arr[idx2];
+let index1Element = arr[idx1];
+arr.splice(idx1, 1, index2Element);
+arr.splice(idx2, 1, index1Element);</t>
   </si>
 </sst>
 </file>
@@ -1142,20 +1153,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1519,10 +1530,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1589,10 +1600,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1664,6 +1675,17 @@
     <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
+    <row r="35" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+    </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>138</v>
@@ -1849,10 +1871,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -1980,10 +2002,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -2136,10 +2158,10 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="19"/>
     </row>
     <row r="100" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -2166,10 +2188,10 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="19"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -2212,10 +2234,10 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="20"/>
+      <c r="B109" s="19"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -2269,7 +2291,7 @@
       <c r="A116" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="21" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2277,7 +2299,7 @@
       <c r="A117" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B117" s="18"/>
+      <c r="B117" s="21"/>
     </row>
     <row r="118" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -2291,7 +2313,7 @@
       <c r="A119" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2299,7 +2321,7 @@
       <c r="A120" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="18"/>
+      <c r="B120" s="21"/>
     </row>
     <row r="121" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -2313,7 +2335,7 @@
       <c r="A122" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="21" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2321,7 +2343,7 @@
       <c r="A123" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B123" s="18"/>
+      <c r="B123" s="21"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -2414,16 +2436,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9596E8-1D1B-4F45-8D8C-75B377F1CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D668A71-18A1-4428-A6E1-07D8B8381949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="221">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -970,6 +970,20 @@
 let index1Element = arr[idx1];
 arr.splice(idx1, 1, index2Element);
 arr.splice(idx2, 1, index1Element);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  function renderData(data){
+    ul.innerHTML = '';
+    Object.values(data).forEach(elem =&gt; {
+        let li = createElement('li', '', ul, elem._id);
+        createElement('span', elem.name, li);
+        createElement('button', 'Remove', li).addEventListener('click', remove);
+        createElement('button', 'Edit', li).addEventListener('click', edit);
+    });
+  }</t>
+  </si>
+  <si>
+    <t>RENDER DATA</t>
   </si>
 </sst>
 </file>
@@ -1153,20 +1167,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B137"/>
+  <dimension ref="A2:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1530,10 +1544,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1600,10 +1614,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1871,10 +1885,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="18"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -2002,10 +2016,10 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -2158,10 +2172,10 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="19"/>
+      <c r="B99" s="20"/>
     </row>
     <row r="100" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -2188,10 +2202,10 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="19"/>
+      <c r="B103" s="20"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -2234,10 +2248,10 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="19"/>
+      <c r="B109" s="20"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -2291,7 +2305,7 @@
       <c r="A116" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="18" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2299,7 +2313,7 @@
       <c r="A117" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B117" s="21"/>
+      <c r="B117" s="18"/>
     </row>
     <row r="118" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -2313,7 +2327,7 @@
       <c r="A119" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2321,7 +2335,7 @@
       <c r="A120" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="21"/>
+      <c r="B120" s="18"/>
     </row>
     <row r="121" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -2335,7 +2349,7 @@
       <c r="A122" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2343,7 +2357,7 @@
       <c r="A123" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B123" s="21"/>
+      <c r="B123" s="18"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -2434,18 +2448,26 @@
     <row r="137" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="15"/>
     </row>
+    <row r="138" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="B122:B123"/>
     <mergeCell ref="B119:B120"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D668A71-18A1-4428-A6E1-07D8B8381949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="465" windowWidth="21630" windowHeight="16935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1956" yWindow="468" windowWidth="21636" windowHeight="16932"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="229">
   <si>
     <t>ShortCuts</t>
   </si>
@@ -985,11 +984,103 @@
   <si>
     <t>RENDER DATA</t>
   </si>
+  <si>
+    <t>arr.reduce((a, b) =&gt; a + b, 0)</t>
+  </si>
+  <si>
+    <t>Сумира всички елементи от масив с числа</t>
+  </si>
+  <si>
+    <t>let lastNItems = treasureChest.slice(0, -count);</t>
+  </si>
+  <si>
+    <t>Премахване на последните n елемента от масив.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Взимане на последните n  елемента от масив - масивът се </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>запазва</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Взимане на последните n  елемента от масив - масивът се </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>променя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let lastNItems = treasureChest.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(-count);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let lastNItems = treasureChest.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>splice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(-count);</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1167,20 +1258,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,27 +1552,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="95.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1513,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1521,13 +1612,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1535,7 +1626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1543,13 +1634,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1557,7 +1648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1565,7 +1656,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1573,7 +1664,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1581,7 +1672,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1589,7 +1680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1597,7 +1688,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1605,7 +1696,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1613,17 +1704,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1631,10 +1722,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1642,10 +1733,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1653,10 +1744,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1664,10 +1755,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1675,10 +1766,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1686,10 +1777,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>217</v>
       </c>
@@ -1697,10 +1788,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1708,7 +1807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1716,7 +1815,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1732,7 +1831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +1839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +1847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1756,7 +1855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1764,7 +1863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1780,7 +1879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1788,7 +1887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1796,7 +1895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1804,7 +1903,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1812,7 +1911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1820,7 +1919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1828,7 +1927,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1836,7 +1935,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1844,7 +1943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1852,7 +1951,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1860,7 +1959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1868,7 +1967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1876,7 +1975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1884,590 +1983,614 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+    <row r="62" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="B65" s="21"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+    <row r="75" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="20"/>
-    </row>
-    <row r="80" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="B82" s="19"/>
+    </row>
+    <row r="83" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="7"/>
-    </row>
-    <row r="81" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="B83" s="7"/>
+    </row>
+    <row r="84" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+    <row r="85" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+    <row r="88" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+    <row r="89" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+    <row r="90" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+    <row r="91" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+    <row r="92" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    <row r="93" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+    <row r="94" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+    <row r="95" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+    <row r="99" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="20"/>
-    </row>
-    <row r="100" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="B102" s="19"/>
+    </row>
+    <row r="103" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+    <row r="105" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A106" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="20"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="B106" s="19"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B109" s="20"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="B112" s="19"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+    <row r="114" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+    <row r="115" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+    <row r="116" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B119" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B117" s="18"/>
-    </row>
-    <row r="118" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="B120" s="21"/>
+    </row>
+    <row r="121" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+    <row r="122" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B122" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+    <row r="123" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="18"/>
-    </row>
-    <row r="121" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="B123" s="21"/>
+    </row>
+    <row r="124" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B125" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B123" s="18"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="B126" s="21"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="346.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+    <row r="131" spans="1:2" ht="343.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="15"/>
-    </row>
-    <row r="132" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+    <row r="134" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="15"/>
+    </row>
+    <row r="135" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="15"/>
-    </row>
-    <row r="134" spans="1:2" s="16" customFormat="1" ht="252" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
+    <row r="136" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="15"/>
+    </row>
+    <row r="137" spans="1:2" s="16" customFormat="1" ht="249.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B137" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="15"/>
-    </row>
-    <row r="136" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+    <row r="138" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="15"/>
+    </row>
+    <row r="139" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B139" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="15"/>
-    </row>
-    <row r="138" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+    <row r="140" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="15"/>
+    </row>
+    <row r="141" spans="1:2" ht="156" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B141" s="4" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B125:B126"/>
     <mergeCell ref="B122:B123"/>
     <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/JavaScript.xlsx
+++ b/JavaScript.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186477F9-0FA7-4DB6-ACBA-E3FEDD57E26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="468" windowWidth="21636" windowHeight="16932"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1080,7 +1081,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1258,20 +1259,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,27 +1553,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="95.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1612,13 +1613,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>145</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1634,13 +1635,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="1:2" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>133</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>131</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>135</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1704,17 +1705,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>160</v>
       </c>
@@ -1722,10 +1723,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -1733,10 +1734,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1744,10 +1745,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1755,10 +1756,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>167</v>
       </c>
@@ -1766,10 +1767,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -1777,10 +1778,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>217</v>
       </c>
@@ -1788,10 +1789,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>221</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>137</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>27</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>68</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>152</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="148.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>115</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>119</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>227</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>223</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>228</v>
       </c>
@@ -2007,13 +2008,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="22" t="s">
+    <row r="65" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="21"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="18"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>44</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>40</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>86</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>48</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>51</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>64</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>66</v>
       </c>
@@ -2085,12 +2086,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>122</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>128</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>68</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>70</v>
       </c>
@@ -2138,19 +2139,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
+    <row r="82" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="19"/>
-    </row>
-    <row r="83" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="1:2" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>102</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>93</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>78</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>80</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>104</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>149</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>150</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>154</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>82</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>88</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>96</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>114</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>100</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>117</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>215</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>146</v>
       </c>
@@ -2294,13 +2295,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="18" t="s">
+    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="19"/>
-    </row>
-    <row r="103" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="B102" s="20"/>
+    </row>
+    <row r="103" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>109</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
@@ -2324,13 +2325,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="18" t="s">
+    <row r="106" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="19"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="20"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>55</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>57</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>73</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>129</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>179</v>
       </c>
@@ -2370,13 +2371,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="20" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B112" s="19"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="20"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>171</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>173</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>175</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>176</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>181</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>200</v>
       </c>
@@ -2424,21 +2425,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B120" s="21"/>
-    </row>
-    <row r="121" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="B120" s="18"/>
+    </row>
+    <row r="121" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>187</v>
       </c>
@@ -2446,21 +2447,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B123" s="21"/>
-    </row>
-    <row r="124" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="18"/>
+    </row>
+    <row r="124" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>194</v>
       </c>
@@ -2468,21 +2469,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B126" s="21"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="18"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>196</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>198</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>200</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>202</v>
       </c>
@@ -2514,12 +2515,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="343.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>204</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>206</v>
       </c>
@@ -2535,10 +2536,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="15"/>
     </row>
-    <row r="135" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>211</v>
       </c>
@@ -2546,10 +2547,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="15"/>
     </row>
-    <row r="137" spans="1:2" s="16" customFormat="1" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" s="16" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>213</v>
       </c>
@@ -2557,10 +2558,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="15"/>
     </row>
-    <row r="139" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>209</v>
       </c>
@@ -2568,10 +2569,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="15"/>
     </row>
-    <row r="141" spans="1:2" ht="156" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>219</v>
       </c>
@@ -2581,16 +2582,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="B122:B123"/>
     <mergeCell ref="B119:B120"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
